--- a/Documents/5. 설계/3. 데이터베이스/게시판 타입 테이블.xlsx
+++ b/Documents/5. 설계/3. 데이터베이스/게시판 타입 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB4A25-5742-416E-947C-33EF51A8D71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF892C-517D-44A2-88DE-7D874BD6AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{44FD900F-5400-408A-9313-8AF21A60F6DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{44FD900F-5400-408A-9313-8AF21A60F6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="분류테이블" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>mno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번은 디비 초기화시에 넣고 select할때 블로그는 제외할 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B24677-83DC-4D60-97DD-2538D298FCA2}">
   <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,7 +772,7 @@
   <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8A3CF9-1906-4428-9C9E-697456A44E19}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -958,13 +966,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -975,7 +980,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -983,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -994,10 +1005,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
